--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gal-Galr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gal-Galr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.020062</v>
+        <v>0.03644533333333334</v>
       </c>
       <c r="H2">
-        <v>3.060186</v>
+        <v>0.109336</v>
       </c>
       <c r="I2">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="J2">
-        <v>0.02710251114301613</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08883366666666669</v>
+        <v>0.03081733333333334</v>
       </c>
       <c r="N2">
-        <v>0.266501</v>
+        <v>0.09245200000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2575601819736846</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2575601819736846</v>
       </c>
       <c r="Q2">
-        <v>0.09061584768733336</v>
+        <v>0.001123147985777778</v>
       </c>
       <c r="R2">
-        <v>0.8155426291860002</v>
+        <v>0.010108331872</v>
       </c>
       <c r="S2">
-        <v>0.02710251114301613</v>
+        <v>0.001432538224899883</v>
       </c>
       <c r="T2">
-        <v>0.02710251114301613</v>
+        <v>0.001432538224899883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>36.61711466666667</v>
+        <v>0.03644533333333334</v>
       </c>
       <c r="H3">
-        <v>109.851344</v>
+        <v>0.109336</v>
       </c>
       <c r="I3">
-        <v>0.9728974888569838</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="J3">
-        <v>0.9728974888569839</v>
+        <v>0.005561955322140003</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08883366666666669</v>
+        <v>0.08883366666666666</v>
       </c>
       <c r="N3">
         <v>0.266501</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7424398180263154</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7424398180263154</v>
       </c>
       <c r="Q3">
-        <v>3.252832558593779</v>
+        <v>0.003237572592888889</v>
       </c>
       <c r="R3">
-        <v>29.27549302734401</v>
+        <v>0.029138153336</v>
       </c>
       <c r="S3">
-        <v>0.9728974888569838</v>
+        <v>0.00412941709724012</v>
       </c>
       <c r="T3">
-        <v>0.9728974888569839</v>
+        <v>0.00412941709724012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>6.516166333333334</v>
+      </c>
+      <c r="H4">
+        <v>19.548499</v>
+      </c>
+      <c r="I4">
+        <v>0.99443804467786</v>
+      </c>
+      <c r="J4">
+        <v>0.99443804467786</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.03081733333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.09245200000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.2575601819736846</v>
+      </c>
+      <c r="P4">
+        <v>0.2575601819736846</v>
+      </c>
+      <c r="Q4">
+        <v>0.2008108699497778</v>
+      </c>
+      <c r="R4">
+        <v>1.807297829548</v>
+      </c>
+      <c r="S4">
+        <v>0.2561276437487848</v>
+      </c>
+      <c r="T4">
+        <v>0.2561276437487848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.516166333333334</v>
+      </c>
+      <c r="H5">
+        <v>19.548499</v>
+      </c>
+      <c r="I5">
+        <v>0.99443804467786</v>
+      </c>
+      <c r="J5">
+        <v>0.99443804467786</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.08883366666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.266501</v>
+      </c>
+      <c r="O5">
+        <v>0.7424398180263154</v>
+      </c>
+      <c r="P5">
+        <v>0.7424398180263154</v>
+      </c>
+      <c r="Q5">
+        <v>0.5788549479998889</v>
+      </c>
+      <c r="R5">
+        <v>5.209694531998999</v>
+      </c>
+      <c r="S5">
+        <v>0.7383104009290753</v>
+      </c>
+      <c r="T5">
+        <v>0.7383104009290753</v>
       </c>
     </row>
   </sheetData>
